--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Projeto_PI\sprint2\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfer\OneDrive\Documentos\SPTECH\PI\SPRINT\Sprint-SPTECH\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D4A66E-9EEB-4A3A-B4BD-18C7C8BFF231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4893742B-E2A8-4D4E-803F-24661552078E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -289,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,15 +309,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,547 +322,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -949,7 +400,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -989,12 +445,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1098,18 +549,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:E40" totalsRowShown="0" headerRowDxfId="66" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:E40" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A2:E40" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E40">
     <sortCondition ref="E3:E40"/>
     <sortCondition ref="D3:D40"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Descrição" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Situação" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{FB961424-78DB-4B77-AA3E-E371EBCFF2CC}" name="Matéria" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{815EDD6F-9FD8-4082-8044-EDB9B713480C}" name="Sprint" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Descrição" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Situação" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{FB961424-78DB-4B77-AA3E-E371EBCFF2CC}" name="Matéria" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{815EDD6F-9FD8-4082-8044-EDB9B713480C}" name="Sprint" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1380,30 +831,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="87" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1420,7 +871,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1488,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1505,7 +956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1522,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1540,7 +991,7 @@
       </c>
       <c r="H9"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1557,7 +1008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1574,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>5</v>
       </c>
@@ -1591,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -1608,7 +1059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1625,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1693,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
@@ -1710,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
@@ -1727,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>28</v>
       </c>
@@ -1761,7 +1212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>31</v>
       </c>
@@ -1778,7 +1229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>32</v>
       </c>
@@ -1795,7 +1246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -1812,7 +1263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
@@ -1829,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1846,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>25</v>
       </c>
@@ -1880,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -1888,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>41</v>
@@ -1897,7 +1348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -1914,11 +1365,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1927,15 +1378,15 @@
       <c r="D32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1944,15 +1395,15 @@
       <c r="D33" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1961,15 +1412,15 @@
       <c r="D34" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -1978,15 +1429,15 @@
       <c r="D35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -1995,15 +1446,15 @@
       <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -2012,15 +1463,15 @@
       <c r="D37" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -2029,15 +1480,15 @@
       <c r="D38" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -2046,15 +1497,15 @@
       <c r="D39" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2063,7 +1514,7 @@
       <c r="D40" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="1">
         <v>3</v>
       </c>
     </row>
@@ -2072,24 +1523,24 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:D40">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Desejável"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"Importante"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D40">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Finalizada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Em Andamento"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"Pendente"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -1,31 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfer\OneDrive\Documentos\SPTECH\PI\SPRINT\Sprint-SPTECH\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Projeto_PI\sprint2\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4893742B-E2A8-4D4E-803F-24661552078E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD558955-BB50-420F-B7F2-440566900F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
   <si>
     <t>Configuração e instalação do Arduino Uno R3 com Sensor MQ-2 utilizando Protoboard e 3 Jumpers (Macho-Macho).</t>
   </si>
@@ -99,9 +132,6 @@
     <t>Site Estático Dashboard (Gráfico com ChartJS) - Local</t>
   </si>
   <si>
-    <t>Site Estático Cadastro e Login – Local ( com conceito de repetições)</t>
-  </si>
-  <si>
     <t>Diagrama de Solução (Arquitetura Técnica do Projeto)</t>
   </si>
   <si>
@@ -114,9 +144,6 @@
     <t>Script de criação do Banco / Tabelas criadas em BD local</t>
   </si>
   <si>
-    <t>Simular a integração do Sistema ( utilização do Sensor + Gráfico)</t>
-  </si>
-  <si>
     <t>Usar API Local / Sensor</t>
   </si>
   <si>
@@ -126,9 +153,6 @@
     <t>Validar a solução técnica</t>
   </si>
   <si>
-    <t>Situação</t>
-  </si>
-  <si>
     <t>Em Andamento</t>
   </si>
   <si>
@@ -162,9 +186,6 @@
     <t>Introdução à SO</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Atividades organizadas na ferramenta de Gestão (Sprints / Atividades)</t>
   </si>
   <si>
@@ -193,6 +214,36 @@
   </si>
   <si>
     <t>Data  Acqu Ino + BobIA (N3)</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>Criptografar as senhas inseridas no Banco de Dados</t>
+  </si>
+  <si>
+    <t>Colocar máscaras nos inputs de Login e Cadastro</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Site Estático Cadastro e Login – Local (com conceito de repetições)</t>
+  </si>
+  <si>
+    <t>Simular a integração do Sistema (utilização do Sensor + Gráfico)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamanho </t>
+  </si>
+  <si>
+    <t>Tamanho (#)</t>
+  </si>
+  <si>
+    <t>Prioridade</t>
+  </si>
+  <si>
+    <t>Requisito</t>
   </si>
 </sst>
 </file>
@@ -240,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -272,24 +323,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -306,23 +344,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -400,12 +453,46 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -426,6 +513,26 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -472,6 +579,26 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -549,18 +676,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:E40" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A2:E40" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E40">
-    <sortCondition ref="E3:E40"/>
-    <sortCondition ref="D3:D40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:I42" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A2:I42" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I42">
+    <sortCondition ref="F3:F42"/>
+    <sortCondition ref="I3:I42"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Descrição" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Situação" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{FB961424-78DB-4B77-AA3E-E371EBCFF2CC}" name="Matéria" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{815EDD6F-9FD8-4082-8044-EDB9B713480C}" name="Sprint" dataDxfId="6"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Requisito" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{B9B864BA-C5E5-45E2-817E-3E3871CAC849}" name="Descrição" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{3502BB37-E611-4076-B136-7B67D26992FF}" name="Tamanho " dataDxfId="9">
+      <calculatedColumnFormula array="1">_xlfn.IFS(E3=3,"PP",E3=5,"P",E3=8,"M",E3=13,"G",E3=21,"GG")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{04F91C54-26E1-4063-B34C-03486B3A493F}" name="Tamanho (#)" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{203EEE87-31C9-4EC2-8FF5-1485A10738C6}" name="Prioridade" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{BD2690E1-9135-40F1-9CE5-CDC4221DCC2A}" name="Sprint" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Status" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{FB961424-78DB-4B77-AA3E-E371EBCFF2CC}" name="Matéria" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -829,700 +962,1194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="87" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="1" width="87" style="1" customWidth="1"/>
+    <col min="2" max="2" width="87" style="1" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="19.81640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1"/>
+    <col min="11" max="11" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="str" cm="1">
+        <f t="array" ref="D3">_xlfn.IFS(E3=3,"PP",E3=5,"P",E3=8,"M",E3=13,"G",E3=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E3" s="11">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="str" cm="1">
+        <f t="array" ref="D4">_xlfn.IFS(E4=3,"PP",E4=5,"P",E4=8,"M",E4=13,"G",E4=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E4" s="11">
+        <v>8</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="str" cm="1">
+        <f t="array" ref="D5">_xlfn.IFS(E5=3,"PP",E5=5,"P",E5=8,"M",E5=13,"G",E5=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E5" s="11">
+        <v>13</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="str" cm="1">
+        <f t="array" ref="D6">_xlfn.IFS(E6=3,"PP",E6=5,"P",E6=8,"M",E6=13,"G",E6=21,"GG")</f>
+        <v>GG</v>
+      </c>
+      <c r="E6" s="11">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="14" t="str" cm="1">
+        <f t="array" ref="D7">_xlfn.IFS(E7=3,"PP",E7=5,"P",E7=8,"M",E7=13,"G",E7=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E7" s="12">
+        <v>5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="str" cm="1">
+        <f t="array" ref="D8">_xlfn.IFS(E8=3,"PP",E8=5,"P",E8=8,"M",E8=13,"G",E8=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E8" s="11">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="str" cm="1">
+        <f t="array" ref="D9">_xlfn.IFS(E9=3,"PP",E9=5,"P",E9=8,"M",E9=13,"G",E9=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E9" s="11">
+        <v>8</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="str" cm="1">
+        <f t="array" ref="D10">_xlfn.IFS(E10=3,"PP",E10=5,"P",E10=8,"M",E10=13,"G",E10=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E10" s="11">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="str" cm="1">
+        <f t="array" ref="D11">_xlfn.IFS(E11=3,"PP",E11=5,"P",E11=8,"M",E11=13,"G",E11=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E11" s="11">
+        <v>8</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="str" cm="1">
+        <f t="array" ref="D12">_xlfn.IFS(E12=3,"PP",E12=5,"P",E12=8,"M",E12=13,"G",E12=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E12" s="11">
+        <v>3</v>
+      </c>
+      <c r="F12" s="11">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2" t="str" cm="1">
+        <f t="array" ref="D13">_xlfn.IFS(E13=3,"PP",E13=5,"P",E13=8,"M",E13=13,"G",E13=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E13" s="11">
+        <v>5</v>
+      </c>
+      <c r="F13" s="11">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="str" cm="1">
+        <f t="array" ref="D14">_xlfn.IFS(E14=3,"PP",E14=5,"P",E14=8,"M",E14=13,"G",E14=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E14" s="11">
+        <v>5</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D15" s="2" t="str" cm="1">
+        <f t="array" ref="D15">_xlfn.IFS(E15=3,"PP",E15=5,"P",E15=8,"M",E15=13,"G",E15=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E15" s="11">
+        <v>13</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="9" t="str" cm="1">
+        <f t="array" ref="D16">_xlfn.IFS(E16=3,"PP",E16=5,"P",E16=8,"M",E16=13,"G",E16=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3</v>
+      </c>
+      <c r="G16" s="10">
+        <v>2</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="str" cm="1">
+        <f t="array" ref="D17">_xlfn.IFS(E17=3,"PP",E17=5,"P",E17=8,"M",E17=13,"G",E17=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E17" s="11">
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="str" cm="1">
+        <f t="array" ref="D18">_xlfn.IFS(E18=3,"PP",E18=5,"P",E18=8,"M",E18=13,"G",E18=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E18" s="11">
+        <v>8</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="str" cm="1">
+        <f t="array" ref="D19">_xlfn.IFS(E19=3,"PP",E19=5,"P",E19=8,"M",E19=13,"G",E19=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E19" s="11">
+        <v>13</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2" t="str" cm="1">
+        <f t="array" ref="D20">_xlfn.IFS(E20=3,"PP",E20=5,"P",E20=8,"M",E20=13,"G",E20=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E20" s="11">
+        <v>5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2" t="str" cm="1">
+        <f t="array" ref="D21">_xlfn.IFS(E21=3,"PP",E21=5,"P",E21=8,"M",E21=13,"G",E21=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E21" s="11">
+        <v>3</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="9" t="str" cm="1">
+        <f t="array" ref="D22">_xlfn.IFS(E22=3,"PP",E22=5,"P",E22=8,"M",E22=13,"G",E22=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E22" s="13">
+        <v>3</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="str" cm="1">
+        <f t="array" ref="D23">_xlfn.IFS(E23=3,"PP",E23=5,"P",E23=8,"M",E23=13,"G",E23=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E23" s="11">
+        <v>3</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="str" cm="1">
+        <f t="array" ref="D24">_xlfn.IFS(E24=3,"PP",E24=5,"P",E24=8,"M",E24=13,"G",E24=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E24" s="11">
+        <v>5</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2" t="str" cm="1">
+        <f t="array" ref="D25">_xlfn.IFS(E25=3,"PP",E25=5,"P",E25=8,"M",E25=13,"G",E25=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E25" s="11">
+        <v>3</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="str" cm="1">
+        <f t="array" ref="D26">_xlfn.IFS(E26=3,"PP",E26=5,"P",E26=8,"M",E26=13,"G",E26=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E26" s="11">
+        <v>5</v>
+      </c>
+      <c r="F26" s="11">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="str" cm="1">
+        <f t="array" ref="D27">_xlfn.IFS(E27=3,"PP",E27=5,"P",E27=8,"M",E27=13,"G",E27=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E27" s="11">
+        <v>3</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="str" cm="1">
+        <f t="array" ref="D28">_xlfn.IFS(E28=3,"PP",E28=5,"P",E28=8,"M",E28=13,"G",E28=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E28" s="11">
+        <v>13</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="str" cm="1">
+        <f t="array" ref="D29">_xlfn.IFS(E29=3,"PP",E29=5,"P",E29=8,"M",E29=13,"G",E29=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E29" s="11">
+        <v>8</v>
+      </c>
+      <c r="F29" s="11">
+        <v>3</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="str" cm="1">
+        <f t="array" ref="D30">_xlfn.IFS(E30=3,"PP",E30=5,"P",E30=8,"M",E30=13,"G",E30=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E30" s="11">
+        <v>5</v>
+      </c>
+      <c r="F30" s="11">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="str" cm="1">
+        <f t="array" ref="D31">_xlfn.IFS(E31=3,"PP",E31=5,"P",E31=8,"M",E31=13,"G",E31=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E31" s="11">
+        <v>8</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2" t="str" cm="1">
+        <f t="array" ref="D32">_xlfn.IFS(E32=3,"PP",E32=5,"P",E32=8,"M",E32=13,"G",E32=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E32" s="11">
+        <v>3</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2" t="str" cm="1">
+        <f t="array" ref="D33">_xlfn.IFS(E33=3,"PP",E33=5,"P",E33=8,"M",E33=13,"G",E33=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E33" s="11">
         <v>5</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="F33" s="11">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="str" cm="1">
+        <f t="array" ref="D34">_xlfn.IFS(E34=3,"PP",E34=5,"P",E34=8,"M",E34=13,"G",E34=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E34" s="11">
+        <v>8</v>
+      </c>
+      <c r="F34" s="11">
+        <v>3</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="str" cm="1">
+        <f t="array" ref="D35">_xlfn.IFS(E35=3,"PP",E35=5,"P",E35=8,"M",E35=13,"G",E35=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E35" s="11">
+        <v>8</v>
+      </c>
+      <c r="F35" s="11">
+        <v>3</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2" t="str" cm="1">
+        <f t="array" ref="D36">_xlfn.IFS(E36=3,"PP",E36=5,"P",E36=8,"M",E36=13,"G",E36=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E36" s="11">
+        <v>5</v>
+      </c>
+      <c r="F36" s="11">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2" t="str" cm="1">
+        <f t="array" ref="D37">_xlfn.IFS(E37=3,"PP",E37=5,"P",E37=8,"M",E37=13,"G",E37=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E37" s="11">
+        <v>8</v>
+      </c>
+      <c r="F37" s="11">
+        <v>3</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="str" cm="1">
+        <f t="array" ref="D38">_xlfn.IFS(E38=3,"PP",E38=5,"P",E38=8,"M",E38=13,"G",E38=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E38" s="11">
+        <v>5</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2" t="str" cm="1">
+        <f t="array" ref="D39">_xlfn.IFS(E39=3,"PP",E39=5,"P",E39=8,"M",E39=13,"G",E39=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E39" s="11">
+        <v>5</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="1">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D40" s="2" t="str" cm="1">
+        <f t="array" ref="D40">_xlfn.IFS(E40=3,"PP",E40=5,"P",E40=8,"M",E40=13,"G",E40=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E40" s="11">
+        <v>8</v>
+      </c>
+      <c r="F40" s="11">
+        <v>2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2" t="str" cm="1">
+        <f t="array" ref="D41">_xlfn.IFS(E41=3,"PP",E41=5,"P",E41=8,"M",E41=13,"G",E41=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E41" s="11">
+        <v>5</v>
+      </c>
+      <c r="F41" s="11">
+        <v>3</v>
+      </c>
+      <c r="G41" s="1">
+        <v>3</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2" t="str" cm="1">
+        <f t="array" ref="D42">_xlfn.IFS(E42=3,"PP",E42=5,"P",E42=8,"M",E42=13,"G",E42=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E42" s="11">
+        <v>13</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:D40">
+  <conditionalFormatting sqref="C3:F42 H3:I42">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
@@ -1533,7 +2160,7 @@
       <formula>"Importante"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:D40">
+  <conditionalFormatting sqref="H3:I42">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Finalizada"</formula>
     </cfRule>
@@ -1544,19 +2171,27 @@
       <formula>"Pendente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E40" xr:uid="{E9CF9112-A7D5-4A3C-8BE7-64942B77F025}">
-      <formula1>1</formula1>
-      <formula2>3</formula2>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G42" xr:uid="{E9CF9112-A7D5-4A3C-8BE7-64942B77F025}">
+      <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B40" xr:uid="{8630AD09-0144-4519-A158-ED3BE3A9872A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C42" xr:uid="{8630AD09-0144-4519-A158-ED3BE3A9872A}">
       <formula1>"Essencial,Importante,Desejável"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C40" xr:uid="{C0662D32-9D3B-4AF6-A8DD-256816F071DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H42" xr:uid="{C0662D32-9D3B-4AF6-A8DD-256816F071DB}">
       <formula1>"Pendente,Em Andamento, Finalizada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D40" xr:uid="{39068AEF-AD2C-49EF-8127-9D7EB96B73B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I42" xr:uid="{39068AEF-AD2C-49EF-8127-9D7EB96B73B3}">
       <formula1>"-,Algoritmo,Arquitetura Computacional,Banco de Dados,Introdução à SO,Pesquisa e Inovação,Tecnlogia da Informação"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E42" xr:uid="{007AAA73-0A84-4DF3-8313-6B93A73F8B5E}">
+      <formula1>"3,5,8,13,21"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F42" xr:uid="{CC5EA872-6DEE-4DBF-8048-5AC3D76DE97D}">
+      <formula1>"1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D42" xr:uid="{14DF18D5-D0D6-460C-9DD3-F79140E2407B}">
+      <formula1>"PP,P,M,G,GG"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Projeto_PI\sprint2\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD558955-BB50-420F-B7F2-440566900F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA933DB7-B8FB-4F4E-820E-EB948645C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
   <si>
     <t>Configuração e instalação do Arduino Uno R3 com Sensor MQ-2 utilizando Protoboard e 3 Jumpers (Macho-Macho).</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Requisito</t>
+  </si>
+  <si>
+    <t>Tornar o Site Responsivo</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -344,6 +347,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -355,21 +367,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,7 +450,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -473,7 +470,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -512,7 +510,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -598,8 +596,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -676,24 +673,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:I42" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A2:I42" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I42">
-    <sortCondition ref="F3:F42"/>
-    <sortCondition ref="I3:I42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:I43" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A2:I43" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I43">
+    <sortCondition ref="F3:F43"/>
+    <sortCondition ref="I3:I43"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Requisito" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{B9B864BA-C5E5-45E2-817E-3E3871CAC849}" name="Descrição" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{B9B864BA-C5E5-45E2-817E-3E3871CAC849}" name="Descrição" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{3502BB37-E611-4076-B136-7B67D26992FF}" name="Tamanho " dataDxfId="9">
+    <tableColumn id="7" xr3:uid="{3502BB37-E611-4076-B136-7B67D26992FF}" name="Tamanho " dataDxfId="11">
       <calculatedColumnFormula array="1">_xlfn.IFS(E3=3,"PP",E3=5,"P",E3=8,"M",E3=13,"G",E3=21,"GG")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{04F91C54-26E1-4063-B34C-03486B3A493F}" name="Tamanho (#)" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{203EEE87-31C9-4EC2-8FF5-1485A10738C6}" name="Prioridade" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{BD2690E1-9135-40F1-9CE5-CDC4221DCC2A}" name="Sprint" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Status" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{FB961424-78DB-4B77-AA3E-E371EBCFF2CC}" name="Matéria" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{203EEE87-31C9-4EC2-8FF5-1485A10738C6}" name="Prioridade" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{BD2690E1-9135-40F1-9CE5-CDC4221DCC2A}" name="Sprint" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Status" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{FB961424-78DB-4B77-AA3E-E371EBCFF2CC}" name="Matéria" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -962,16 +959,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K4:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="87" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="87" style="1" customWidth="1"/>
     <col min="3" max="7" width="19.81640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.453125" style="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="1" customWidth="1"/>
@@ -983,17 +979,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -1036,10 +1032,10 @@
         <f t="array" ref="D3">_xlfn.IFS(E3=3,"PP",E3=5,"P",E3=8,"M",E3=13,"G",E3=21,"GG")</f>
         <v>G</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="6">
         <v>13</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="6">
         <v>1</v>
       </c>
       <c r="G3" s="1">
@@ -1064,10 +1060,10 @@
         <f t="array" ref="D4">_xlfn.IFS(E4=3,"PP",E4=5,"P",E4=8,"M",E4=13,"G",E4=21,"GG")</f>
         <v>M</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="6">
         <v>8</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="6">
         <v>1</v>
       </c>
       <c r="G4" s="1">
@@ -1092,10 +1088,10 @@
         <f t="array" ref="D5">_xlfn.IFS(E5=3,"PP",E5=5,"P",E5=8,"M",E5=13,"G",E5=21,"GG")</f>
         <v>G</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>13</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
       <c r="G5" s="1">
@@ -1120,10 +1116,10 @@
         <f t="array" ref="D6">_xlfn.IFS(E6=3,"PP",E6=5,"P",E6=8,"M",E6=13,"G",E6=21,"GG")</f>
         <v>GG</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <v>21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="G6" s="1">
@@ -1144,14 +1140,14 @@
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="14" t="str" cm="1">
+      <c r="D7" s="8" t="str" cm="1">
         <f t="array" ref="D7">_xlfn.IFS(E7=3,"PP",E7=5,"P",E7=8,"M",E7=13,"G",E7=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="7">
         <v>5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -1163,6 +1159,7 @@
       <c r="I7" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
@@ -1176,10 +1173,10 @@
         <f t="array" ref="D8">_xlfn.IFS(E8=3,"PP",E8=5,"P",E8=8,"M",E8=13,"G",E8=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E8" s="11">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11">
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -1204,10 +1201,10 @@
         <f t="array" ref="D9">_xlfn.IFS(E9=3,"PP",E9=5,"P",E9=8,"M",E9=13,"G",E9=21,"GG")</f>
         <v>M</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="6">
         <v>8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="6">
         <v>2</v>
       </c>
       <c r="G9" s="1">
@@ -1233,10 +1230,10 @@
         <f t="array" ref="D10">_xlfn.IFS(E10=3,"PP",E10=5,"P",E10=8,"M",E10=13,"G",E10=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E10" s="11">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11">
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
         <v>2</v>
       </c>
       <c r="G10" s="1">
@@ -1261,10 +1258,10 @@
         <f t="array" ref="D11">_xlfn.IFS(E11=3,"PP",E11=5,"P",E11=8,"M",E11=13,"G",E11=21,"GG")</f>
         <v>M</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="6">
         <v>8</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="6">
         <v>2</v>
       </c>
       <c r="G11" s="1">
@@ -1289,10 +1286,10 @@
         <f t="array" ref="D12">_xlfn.IFS(E12=3,"PP",E12=5,"P",E12=8,"M",E12=13,"G",E12=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11">
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
         <v>3</v>
       </c>
       <c r="G12" s="1">
@@ -1317,10 +1314,10 @@
         <f t="array" ref="D13">_xlfn.IFS(E13=3,"PP",E13=5,"P",E13=8,"M",E13=13,"G",E13=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="6">
         <v>5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="6">
         <v>3</v>
       </c>
       <c r="G13" s="1">
@@ -1345,10 +1342,10 @@
         <f t="array" ref="D14">_xlfn.IFS(E14=3,"PP",E14=5,"P",E14=8,"M",E14=13,"G",E14=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="6">
         <v>5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="6">
         <v>3</v>
       </c>
       <c r="G14" s="1">
@@ -1373,10 +1370,10 @@
         <f t="array" ref="D15">_xlfn.IFS(E15=3,"PP",E15=5,"P",E15=8,"M",E15=13,"G",E15=21,"GG")</f>
         <v>G</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="6">
         <v>13</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="6">
         <v>3</v>
       </c>
       <c r="G15" s="1">
@@ -1390,24 +1387,24 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="9" t="str" cm="1">
+      <c r="D16" s="2" t="str" cm="1">
         <f t="array" ref="D16">_xlfn.IFS(E16=3,"PP",E16=5,"P",E16=8,"M",E16=13,"G",E16=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="13">
-        <v>3</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -1429,10 +1426,10 @@
         <f t="array" ref="D17">_xlfn.IFS(E17=3,"PP",E17=5,"P",E17=8,"M",E17=13,"G",E17=21,"GG")</f>
         <v>G</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="6">
         <v>13</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="6">
         <v>1</v>
       </c>
       <c r="G17" s="1">
@@ -1457,10 +1454,10 @@
         <f t="array" ref="D18">_xlfn.IFS(E18=3,"PP",E18=5,"P",E18=8,"M",E18=13,"G",E18=21,"GG")</f>
         <v>M</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="6">
         <v>8</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="6">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -1485,10 +1482,10 @@
         <f t="array" ref="D19">_xlfn.IFS(E19=3,"PP",E19=5,"P",E19=8,"M",E19=13,"G",E19=21,"GG")</f>
         <v>G</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="6">
         <v>13</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="6">
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -1513,10 +1510,10 @@
         <f t="array" ref="D20">_xlfn.IFS(E20=3,"PP",E20=5,"P",E20=8,"M",E20=13,"G",E20=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="6">
         <v>5</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="6">
         <v>2</v>
       </c>
       <c r="G20" s="1">
@@ -1541,10 +1538,10 @@
         <f t="array" ref="D21">_xlfn.IFS(E21=3,"PP",E21=5,"P",E21=8,"M",E21=13,"G",E21=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E21" s="11">
-        <v>3</v>
-      </c>
-      <c r="F21" s="11">
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6">
         <v>2</v>
       </c>
       <c r="G21" s="1">
@@ -1558,24 +1555,24 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="4"/>
+      <c r="C22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="9" t="str" cm="1">
+      <c r="D22" s="2" t="str" cm="1">
         <f t="array" ref="D22">_xlfn.IFS(E22=3,"PP",E22=5,"P",E22=8,"M",E22=13,"G",E22=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E22" s="13">
-        <v>3</v>
-      </c>
-      <c r="F22" s="13">
-        <v>3</v>
-      </c>
-      <c r="G22" s="10">
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
         <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -1597,10 +1594,10 @@
         <f t="array" ref="D23">_xlfn.IFS(E23=3,"PP",E23=5,"P",E23=8,"M",E23=13,"G",E23=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E23" s="11">
-        <v>3</v>
-      </c>
-      <c r="F23" s="11">
+      <c r="E23" s="6">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6">
         <v>1</v>
       </c>
       <c r="G23" s="1">
@@ -1625,10 +1622,10 @@
         <f t="array" ref="D24">_xlfn.IFS(E24=3,"PP",E24=5,"P",E24=8,"M",E24=13,"G",E24=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="6">
         <v>5</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="6">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -1653,10 +1650,10 @@
         <f t="array" ref="D25">_xlfn.IFS(E25=3,"PP",E25=5,"P",E25=8,"M",E25=13,"G",E25=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E25" s="11">
-        <v>3</v>
-      </c>
-      <c r="F25" s="11">
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
         <v>2</v>
       </c>
       <c r="G25" s="1">
@@ -1681,10 +1678,10 @@
         <f t="array" ref="D26">_xlfn.IFS(E26=3,"PP",E26=5,"P",E26=8,"M",E26=13,"G",E26=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="6">
         <v>5</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="6">
         <v>3</v>
       </c>
       <c r="G26" s="1">
@@ -1709,10 +1706,10 @@
         <f t="array" ref="D27">_xlfn.IFS(E27=3,"PP",E27=5,"P",E27=8,"M",E27=13,"G",E27=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E27" s="11">
-        <v>3</v>
-      </c>
-      <c r="F27" s="11">
+      <c r="E27" s="6">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6">
         <v>1</v>
       </c>
       <c r="G27" s="1">
@@ -1737,10 +1734,10 @@
         <f t="array" ref="D28">_xlfn.IFS(E28=3,"PP",E28=5,"P",E28=8,"M",E28=13,"G",E28=21,"GG")</f>
         <v>G</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="6">
         <v>13</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="6">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -1765,10 +1762,10 @@
         <f t="array" ref="D29">_xlfn.IFS(E29=3,"PP",E29=5,"P",E29=8,"M",E29=13,"G",E29=21,"GG")</f>
         <v>M</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="6">
         <v>8</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="6">
         <v>3</v>
       </c>
       <c r="G29" s="1">
@@ -1793,10 +1790,10 @@
         <f t="array" ref="D30">_xlfn.IFS(E30=3,"PP",E30=5,"P",E30=8,"M",E30=13,"G",E30=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="6">
         <v>5</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="6">
         <v>3</v>
       </c>
       <c r="G30" s="1">
@@ -1821,10 +1818,10 @@
         <f t="array" ref="D31">_xlfn.IFS(E31=3,"PP",E31=5,"P",E31=8,"M",E31=13,"G",E31=21,"GG")</f>
         <v>M</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="6">
         <v>8</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="6">
         <v>2</v>
       </c>
       <c r="G31" s="1">
@@ -1849,10 +1846,10 @@
         <f t="array" ref="D32">_xlfn.IFS(E32=3,"PP",E32=5,"P",E32=8,"M",E32=13,"G",E32=21,"GG")</f>
         <v>PP</v>
       </c>
-      <c r="E32" s="11">
-        <v>3</v>
-      </c>
-      <c r="F32" s="11">
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="6">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -1877,10 +1874,10 @@
         <f t="array" ref="D33">_xlfn.IFS(E33=3,"PP",E33=5,"P",E33=8,"M",E33=13,"G",E33=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="6">
         <v>5</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="6">
         <v>1</v>
       </c>
       <c r="G33" s="1">
@@ -1894,36 +1891,36 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>48</v>
+      <c r="A34" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="2" t="s">
-        <v>1</v>
+      <c r="C34" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="str" cm="1">
         <f t="array" ref="D34">_xlfn.IFS(E34=3,"PP",E34=5,"P",E34=8,"M",E34=13,"G",E34=21,"GG")</f>
-        <v>M</v>
-      </c>
-      <c r="E34" s="11">
-        <v>8</v>
-      </c>
-      <c r="F34" s="11">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1">
+        <v>G</v>
+      </c>
+      <c r="E34" s="6">
+        <v>13</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6">
         <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
@@ -1933,10 +1930,10 @@
         <f t="array" ref="D35">_xlfn.IFS(E35=3,"PP",E35=5,"P",E35=8,"M",E35=13,"G",E35=21,"GG")</f>
         <v>M</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="6">
         <v>8</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="6">
         <v>3</v>
       </c>
       <c r="G35" s="1">
@@ -1951,7 +1948,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
@@ -1959,12 +1956,12 @@
       </c>
       <c r="D36" s="2" t="str" cm="1">
         <f t="array" ref="D36">_xlfn.IFS(E36=3,"PP",E36=5,"P",E36=8,"M",E36=13,"G",E36=21,"GG")</f>
-        <v>P</v>
-      </c>
-      <c r="E36" s="11">
-        <v>5</v>
-      </c>
-      <c r="F36" s="11">
+        <v>M</v>
+      </c>
+      <c r="E36" s="6">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6">
         <v>3</v>
       </c>
       <c r="G36" s="1">
@@ -1979,7 +1976,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
@@ -1987,12 +1984,12 @@
       </c>
       <c r="D37" s="2" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(E37=3,"PP",E37=5,"P",E37=8,"M",E37=13,"G",E37=21,"GG")</f>
-        <v>M</v>
-      </c>
-      <c r="E37" s="11">
-        <v>8</v>
-      </c>
-      <c r="F37" s="11">
+        <v>P</v>
+      </c>
+      <c r="E37" s="6">
+        <v>5</v>
+      </c>
+      <c r="F37" s="6">
         <v>3</v>
       </c>
       <c r="G37" s="1">
@@ -2007,7 +2004,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
@@ -2015,13 +2012,13 @@
       </c>
       <c r="D38" s="2" t="str" cm="1">
         <f t="array" ref="D38">_xlfn.IFS(E38=3,"PP",E38=5,"P",E38=8,"M",E38=13,"G",E38=21,"GG")</f>
-        <v>P</v>
-      </c>
-      <c r="E38" s="11">
-        <v>5</v>
-      </c>
-      <c r="F38" s="11">
-        <v>1</v>
+        <v>M</v>
+      </c>
+      <c r="E38" s="6">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3</v>
       </c>
       <c r="G38" s="1">
         <v>3</v>
@@ -2030,12 +2027,12 @@
         <v>33</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
@@ -2045,10 +2042,10 @@
         <f t="array" ref="D39">_xlfn.IFS(E39=3,"PP",E39=5,"P",E39=8,"M",E39=13,"G",E39=21,"GG")</f>
         <v>P</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="6">
         <v>5</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="6">
         <v>1</v>
       </c>
       <c r="G39" s="1">
@@ -2063,7 +2060,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
@@ -2071,13 +2068,13 @@
       </c>
       <c r="D40" s="2" t="str" cm="1">
         <f t="array" ref="D40">_xlfn.IFS(E40=3,"PP",E40=5,"P",E40=8,"M",E40=13,"G",E40=21,"GG")</f>
-        <v>M</v>
-      </c>
-      <c r="E40" s="11">
-        <v>8</v>
-      </c>
-      <c r="F40" s="11">
-        <v>2</v>
+        <v>P</v>
+      </c>
+      <c r="E40" s="6">
+        <v>5</v>
+      </c>
+      <c r="F40" s="6">
+        <v>1</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
@@ -2086,12 +2083,12 @@
         <v>33</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
@@ -2099,13 +2096,13 @@
       </c>
       <c r="D41" s="2" t="str" cm="1">
         <f t="array" ref="D41">_xlfn.IFS(E41=3,"PP",E41=5,"P",E41=8,"M",E41=13,"G",E41=21,"GG")</f>
-        <v>P</v>
-      </c>
-      <c r="E41" s="11">
-        <v>5</v>
-      </c>
-      <c r="F41" s="11">
-        <v>3</v>
+        <v>M</v>
+      </c>
+      <c r="E41" s="6">
+        <v>8</v>
+      </c>
+      <c r="F41" s="6">
+        <v>2</v>
       </c>
       <c r="G41" s="1">
         <v>3</v>
@@ -2119,7 +2116,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
@@ -2127,13 +2124,13 @@
       </c>
       <c r="D42" s="2" t="str" cm="1">
         <f t="array" ref="D42">_xlfn.IFS(E42=3,"PP",E42=5,"P",E42=8,"M",E42=13,"G",E42=21,"GG")</f>
-        <v>G</v>
-      </c>
-      <c r="E42" s="11">
-        <v>13</v>
-      </c>
-      <c r="F42" s="11">
-        <v>1</v>
+        <v>P</v>
+      </c>
+      <c r="E42" s="6">
+        <v>5</v>
+      </c>
+      <c r="F42" s="6">
+        <v>3</v>
       </c>
       <c r="G42" s="1">
         <v>3</v>
@@ -2142,6 +2139,34 @@
         <v>33</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2" t="str" cm="1">
+        <f t="array" ref="D43">_xlfn.IFS(E43=3,"PP",E43=5,"P",E43=8,"M",E43=13,"G",E43=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E43" s="6">
+        <v>13</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2149,7 +2174,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:F42 H3:I42">
+  <conditionalFormatting sqref="C3:F43 H3:I43">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
@@ -2160,7 +2185,7 @@
       <formula>"Importante"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I42">
+  <conditionalFormatting sqref="H3:I43">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Finalizada"</formula>
     </cfRule>
@@ -2171,26 +2196,23 @@
       <formula>"Pendente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G42" xr:uid="{E9CF9112-A7D5-4A3C-8BE7-64942B77F025}">
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G43" xr:uid="{E9CF9112-A7D5-4A3C-8BE7-64942B77F025}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C42" xr:uid="{8630AD09-0144-4519-A158-ED3BE3A9872A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C43" xr:uid="{8630AD09-0144-4519-A158-ED3BE3A9872A}">
       <formula1>"Essencial,Importante,Desejável"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H42" xr:uid="{C0662D32-9D3B-4AF6-A8DD-256816F071DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H43" xr:uid="{C0662D32-9D3B-4AF6-A8DD-256816F071DB}">
       <formula1>"Pendente,Em Andamento, Finalizada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I42" xr:uid="{39068AEF-AD2C-49EF-8127-9D7EB96B73B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I43" xr:uid="{39068AEF-AD2C-49EF-8127-9D7EB96B73B3}">
       <formula1>"-,Algoritmo,Arquitetura Computacional,Banco de Dados,Introdução à SO,Pesquisa e Inovação,Tecnlogia da Informação"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E42" xr:uid="{007AAA73-0A84-4DF3-8313-6B93A73F8B5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E43" xr:uid="{007AAA73-0A84-4DF3-8313-6B93A73F8B5E}">
       <formula1>"3,5,8,13,21"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F42" xr:uid="{CC5EA872-6DEE-4DBF-8048-5AC3D76DE97D}">
-      <formula1>"1,2,3"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D42" xr:uid="{14DF18D5-D0D6-460C-9DD3-F79140E2407B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D43" xr:uid="{14DF18D5-D0D6-460C-9DD3-F79140E2407B}">
       <formula1>"PP,P,M,G,GG"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Projeto_PI\sprint2\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA933DB7-B8FB-4F4E-820E-EB948645C114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2A28DE-D17C-4D39-BB07-1BDF3CCC2ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
   <si>
     <t>Configuração e instalação do Arduino Uno R3 com Sensor MQ-2 utilizando Protoboard e 3 Jumpers (Macho-Macho).</t>
   </si>
@@ -247,6 +247,99 @@
   </si>
   <si>
     <t>Tornar o Site Responsivo</t>
+  </si>
+  <si>
+    <t>Simulador Financeiro em HTML e JS que mostre o valor agregado da nossa empresa</t>
+  </si>
+  <si>
+    <t>Tabelas no MySQL que posteriormente irão armazenar os dados dos sensores e os dados de cadastro</t>
+  </si>
+  <si>
+    <t>Diagrama que mostra para o cliente como funciona o nosso negócio de maneira simples e intuitiva, não técnica</t>
+  </si>
+  <si>
+    <t>Documentação do Projeto como um todo, contendo: Capa, Sumário, Contexto, Objetivo, Justificativa, Escopo, Premissas, Restrições e Referências Bibliográficas</t>
+  </si>
+  <si>
+    <t>Repositório no Git onde serão armazenados todos os arquivos que farão parte desse projeto</t>
+  </si>
+  <si>
+    <t>Trello, configurá-lo para que a equipe possa acompanhar o andamento das atividades</t>
+  </si>
+  <si>
+    <t>Configurar o Arduíno, incluindo montagem física do sensor e programação via Arduino IDE</t>
+  </si>
+  <si>
+    <t>Instalar o Linux na VM para posteriormente testarmos e alocarmos a nossa aplicação</t>
+  </si>
+  <si>
+    <t>Protótipo do Site no Figma, Canva ou Photoshop para mostrar ao cliente como será o site</t>
+  </si>
+  <si>
+    <t>Dashboard via Arduino IDE onde serão plotados os dados dos sensores</t>
+  </si>
+  <si>
+    <t>Inserts e Selects nas tabelas criadas acima para mostrar ao cliente</t>
+  </si>
+  <si>
+    <t>Comandos que criam usuários, diretórios e arquivos para o cliente na VM</t>
+  </si>
+  <si>
+    <t>Máscarar os inputs para facilitar o Insert dos dados no banco e a utilização do usuário</t>
+  </si>
+  <si>
+    <t>Criptografar as senhas inseridos no cadastro do usuário quando enviadas para o banco de dados</t>
+  </si>
+  <si>
+    <t>Telas de Cadastro e Login em HTML, CSS e JS, mas que ainda não enviarão dados para o banco</t>
+  </si>
+  <si>
+    <t>Site estático em HTML, CSS e JS que seguirá o protótipo já montado</t>
+  </si>
+  <si>
+    <t>Site em HTML, CSS e JS que terá a integração com o Arduíno, mostrando os dados do sensor em forma de gráficos</t>
+  </si>
+  <si>
+    <t>Modelagem Lógica que irá conter as tabelas do banco de dados e o seu relacionamento</t>
+  </si>
+  <si>
+    <t>Criar novamente as tabelas, mas dessa vez adicionar as chaves estrangeiras e o relacionamento</t>
+  </si>
+  <si>
+    <t>Atualização do projeto no GitHub</t>
+  </si>
+  <si>
+    <t>Atualização da documentação para rever os detalhes que precisam ser melhorado mediam o feedback do cliente e a Sprint Review</t>
+  </si>
+  <si>
+    <t>Organizar as atividades novamente no Trello</t>
+  </si>
+  <si>
+    <t>Adicionar mais três colunas ao Backlog: Tamanho, Prioridade e Responsável</t>
+  </si>
+  <si>
+    <t>Utilizar a API para simular a Dashboard juntamente com os dados vindo do Arduíno</t>
+  </si>
+  <si>
+    <t>Teste da API no localhost</t>
+  </si>
+  <si>
+    <t>Utilização do MySQL na VM com o objetivo de isolar o ambiente da aplicação</t>
+  </si>
+  <si>
+    <t>Diagrama que mostrará uma visão técnica da nossa solução</t>
+  </si>
+  <si>
+    <t>Validar o Diagrama de Solução</t>
+  </si>
+  <si>
+    <t>Elaborar a planilha de riscos do nosso projeto</t>
+  </si>
+  <si>
+    <t>Especificar qual será a dashboard utilizada para exibir os dados para o cliente</t>
+  </si>
+  <si>
+    <t>Montar um sistema de recuperação de senhas no nosso site</t>
   </si>
 </sst>
 </file>
@@ -330,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,12 +453,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,8 +763,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:I43" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A2:I43" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I43">
+    <sortCondition ref="G3:G43"/>
+    <sortCondition ref="C3:C43"/>
     <sortCondition ref="F3:F43"/>
-    <sortCondition ref="I3:I43"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Requisito" dataDxfId="14"/>
@@ -961,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K4:K7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1024,7 +1112,9 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1048,11 +1138,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1076,11 +1168,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1104,11 +1198,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1132,11 +1228,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1161,11 +1259,13 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
@@ -1193,7 +1293,9 @@
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1222,7 +1324,9 @@
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1246,11 +1350,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
@@ -1278,7 +1384,9 @@
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="C12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1306,7 +1414,9 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="C13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1444,9 @@
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1358,20 +1470,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="str" cm="1">
         <f t="array" ref="D15">_xlfn.IFS(E15=3,"PP",E15=5,"P",E15=8,"M",E15=13,"G",E15=21,"GG")</f>
-        <v>G</v>
+        <v>P</v>
       </c>
       <c r="E15" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F15" s="6">
         <v>3</v>
@@ -1386,20 +1500,22 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="31" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="C16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="2" t="str" cm="1">
         <f t="array" ref="D16">_xlfn.IFS(E16=3,"PP",E16=5,"P",E16=8,"M",E16=13,"G",E16=21,"GG")</f>
-        <v>P</v>
+        <v>PP</v>
       </c>
       <c r="E16" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F16" s="6">
         <v>3</v>
@@ -1411,14 +1527,16 @@
         <v>33</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1442,11 +1560,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1470,11 +1590,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>77</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1498,23 +1620,25 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="2" t="str" cm="1">
         <f t="array" ref="D20">_xlfn.IFS(E20=3,"PP",E20=5,"P",E20=8,"M",E20=13,"G",E20=21,"GG")</f>
-        <v>P</v>
+        <v>PP</v>
       </c>
       <c r="E20" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>2</v>
@@ -1523,44 +1647,48 @@
         <v>31</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2" t="str" cm="1">
         <f t="array" ref="D21">_xlfn.IFS(E21=3,"PP",E21=5,"P",E21=8,"M",E21=13,"G",E21=21,"GG")</f>
-        <v>PP</v>
+        <v>P</v>
       </c>
       <c r="E21" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>2</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="C22" s="2" t="s">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2" t="str" cm="1">
         <f t="array" ref="D22">_xlfn.IFS(E22=3,"PP",E22=5,"P",E22=8,"M",E22=13,"G",E22=21,"GG")</f>
@@ -1570,32 +1698,34 @@
         <v>3</v>
       </c>
       <c r="F22" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>2</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="2" t="str" cm="1">
         <f t="array" ref="D23">_xlfn.IFS(E23=3,"PP",E23=5,"P",E23=8,"M",E23=13,"G",E23=21,"GG")</f>
-        <v>PP</v>
+        <v>G</v>
       </c>
       <c r="E23" s="6">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F23" s="6">
         <v>1</v>
@@ -1607,23 +1737,25 @@
         <v>31</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="str" cm="1">
         <f t="array" ref="D24">_xlfn.IFS(E24=3,"PP",E24=5,"P",E24=8,"M",E24=13,"G",E24=21,"GG")</f>
-        <v>P</v>
+        <v>PP</v>
       </c>
       <c r="E24" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F24" s="6">
         <v>1</v>
@@ -1632,29 +1764,31 @@
         <v>2</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D25" s="2" t="str" cm="1">
         <f t="array" ref="D25">_xlfn.IFS(E25=3,"PP",E25=5,"P",E25=8,"M",E25=13,"G",E25=21,"GG")</f>
-        <v>PP</v>
+        <v>P</v>
       </c>
       <c r="E25" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1">
         <v>2</v>
@@ -1663,14 +1797,16 @@
         <v>31</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>1</v>
       </c>
@@ -1682,23 +1818,25 @@
         <v>5</v>
       </c>
       <c r="F26" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1">
         <v>2</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
@@ -1710,35 +1848,37 @@
         <v>3</v>
       </c>
       <c r="F27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
         <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D28" s="2" t="str" cm="1">
         <f t="array" ref="D28">_xlfn.IFS(E28=3,"PP",E28=5,"P",E28=8,"M",E28=13,"G",E28=21,"GG")</f>
-        <v>G</v>
+        <v>PP</v>
       </c>
       <c r="E28" s="6">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>2</v>
@@ -1747,14 +1887,16 @@
         <v>31</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1908,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
         <v>2</v>
@@ -1775,14 +1917,16 @@
         <v>33</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
       </c>
@@ -1803,14 +1947,16 @@
         <v>33</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
       </c>
@@ -1822,7 +1968,7 @@
         <v>8</v>
       </c>
       <c r="F31" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
         <v>2</v>
@@ -1831,96 +1977,100 @@
         <v>33</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D32" s="2" t="str" cm="1">
         <f t="array" ref="D32">_xlfn.IFS(E32=3,"PP",E32=5,"P",E32=8,"M",E32=13,"G",E32=21,"GG")</f>
-        <v>PP</v>
+        <v>P</v>
       </c>
       <c r="E32" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F32" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G32" s="1">
         <v>2</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="C33" s="2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="str" cm="1">
         <f t="array" ref="D33">_xlfn.IFS(E33=3,"PP",E33=5,"P",E33=8,"M",E33=13,"G",E33=21,"GG")</f>
-        <v>P</v>
+        <v>G</v>
       </c>
       <c r="E33" s="6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F33" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="1">
         <v>2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="11" t="s">
-        <v>62</v>
+      <c r="A34" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B34" s="4"/>
-      <c r="C34" s="12" t="s">
-        <v>35</v>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="str" cm="1">
         <f t="array" ref="D34">_xlfn.IFS(E34=3,"PP",E34=5,"P",E34=8,"M",E34=13,"G",E34=21,"GG")</f>
-        <v>G</v>
+        <v>P</v>
       </c>
       <c r="E34" s="6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F34" s="6">
-        <v>3</v>
-      </c>
-      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
         <v>3</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
@@ -1928,13 +2078,13 @@
       </c>
       <c r="D35" s="2" t="str" cm="1">
         <f t="array" ref="D35">_xlfn.IFS(E35=3,"PP",E35=5,"P",E35=8,"M",E35=13,"G",E35=21,"GG")</f>
-        <v>M</v>
+        <v>P</v>
       </c>
       <c r="E35" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1">
         <v>3</v>
@@ -1943,12 +2093,12 @@
         <v>33</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="2" t="s">
@@ -1956,13 +2106,13 @@
       </c>
       <c r="D36" s="2" t="str" cm="1">
         <f t="array" ref="D36">_xlfn.IFS(E36=3,"PP",E36=5,"P",E36=8,"M",E36=13,"G",E36=21,"GG")</f>
-        <v>M</v>
+        <v>G</v>
       </c>
       <c r="E36" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F36" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1">
         <v>3</v>
@@ -1971,12 +2121,12 @@
         <v>33</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="2" t="s">
@@ -1984,13 +2134,13 @@
       </c>
       <c r="D37" s="2" t="str" cm="1">
         <f t="array" ref="D37">_xlfn.IFS(E37=3,"PP",E37=5,"P",E37=8,"M",E37=13,"G",E37=21,"GG")</f>
-        <v>P</v>
+        <v>M</v>
       </c>
       <c r="E37" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F37" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
         <v>3</v>
@@ -1999,12 +2149,12 @@
         <v>33</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
@@ -2032,7 +2182,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
@@ -2040,13 +2190,13 @@
       </c>
       <c r="D39" s="2" t="str" cm="1">
         <f t="array" ref="D39">_xlfn.IFS(E39=3,"PP",E39=5,"P",E39=8,"M",E39=13,"G",E39=21,"GG")</f>
-        <v>P</v>
+        <v>M</v>
       </c>
       <c r="E39" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F39" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="1">
         <v>3</v>
@@ -2055,12 +2205,12 @@
         <v>33</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
@@ -2074,7 +2224,7 @@
         <v>5</v>
       </c>
       <c r="F40" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="1">
         <v>3</v>
@@ -2083,12 +2233,12 @@
         <v>33</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
@@ -2102,7 +2252,7 @@
         <v>8</v>
       </c>
       <c r="F41" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
         <v>3</v>
@@ -2111,7 +2261,7 @@
         <v>33</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -2144,11 +2294,11 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="2" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D43" s="2" t="str" cm="1">
         <f t="array" ref="D43">_xlfn.IFS(E43=3,"PP",E43=5,"P",E43=8,"M",E43=13,"G",E43=21,"GG")</f>
@@ -2158,16 +2308,16 @@
         <v>13</v>
       </c>
       <c r="F43" s="6">
-        <v>1</v>
-      </c>
-      <c r="G43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="6">
         <v>3</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>33</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Projeto_PI\sprint2\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2A28DE-D17C-4D39-BB07-1BDF3CCC2ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33F0468-9500-4E6E-90B8-99328FE079EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -761,7 +761,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:I43" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A2:I43" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
+  <autoFilter ref="A2:I43" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I43">
     <sortCondition ref="G3:G43"/>
     <sortCondition ref="C3:C43"/>
@@ -1049,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1108,7 +1114,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1138,7 +1144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1168,7 +1174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1228,7 +1234,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1259,7 +1265,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1326,7 @@
       </c>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1380,7 +1386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1410,7 +1416,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>40</v>
@@ -1674,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>40</v>
@@ -2040,7 +2046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
@@ -2068,7 +2074,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
@@ -2124,7 +2130,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
@@ -2152,7 +2158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
@@ -2180,7 +2186,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
@@ -2208,7 +2214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>51</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>62</v>
       </c>

--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Projeto_PI\sprint2\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33F0468-9500-4E6E-90B8-99328FE079EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5047F2-AC2D-4C9A-8DF0-D325DD145015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,6 +767,12 @@
         <filter val="2"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Em Andamento"/>
+        <filter val="Finalizada"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I43">
     <sortCondition ref="G3:G43"/>
@@ -1055,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1476,7 +1482,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -1506,7 +1512,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1536,7 +1542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>37</v>
@@ -1860,7 +1866,7 @@
         <v>2</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>36</v>
@@ -1896,7 +1902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>

--- a/Backlog/Backlog.xlsx
+++ b/Backlog/Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\Projeto_PI\sprint2\Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpfer\OneDrive\Documentos\SPTECH\PI\SPRINT\Sprint-SPTECH\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5047F2-AC2D-4C9A-8DF0-D325DD145015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CCE58D-AAE6-4689-98E7-003A61C78556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="111">
   <si>
     <t>Configuração e instalação do Arduino Uno R3 com Sensor MQ-2 utilizando Protoboard e 3 Jumpers (Macho-Macho).</t>
   </si>
@@ -340,6 +340,57 @@
   </si>
   <si>
     <t>Montar um sistema de recuperação de senhas no nosso site</t>
+  </si>
+  <si>
+    <t>Tabelas criadas no Banco de Dados (Final)</t>
+  </si>
+  <si>
+    <t>Manual de Instalação</t>
+  </si>
+  <si>
+    <t>PPT de Apresentação do Projeto</t>
+  </si>
+  <si>
+    <t>Dashboard(ChartJS) acessando o Banco</t>
+  </si>
+  <si>
+    <t>Site Institucional</t>
+  </si>
+  <si>
+    <t>Cadastro e Login Acessando o Banco</t>
+  </si>
+  <si>
+    <t>(Individualmente) - Indicadores acessando o Banco</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Responsável</t>
+  </si>
+  <si>
+    <t>João Pedro</t>
+  </si>
+  <si>
+    <t>Lucas Aiello</t>
+  </si>
+  <si>
+    <t>Lucas Pereira</t>
+  </si>
+  <si>
+    <t>Miguel Angel</t>
+  </si>
+  <si>
+    <t>Shelly Nadudvari</t>
+  </si>
+  <si>
+    <t>Thiago Sanchez</t>
+  </si>
+  <si>
+    <t>Aguardando novas instruções</t>
+  </si>
+  <si>
+    <t>Deixar o site responsivo para os mais diversos dispositivos (navegadores e mobile)</t>
   </si>
 </sst>
 </file>
@@ -459,7 +510,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -519,6 +570,26 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -760,36 +831,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:I43" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A2:I43" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Em Andamento"/>
-        <filter val="Finalizada"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}" name="Tabela2" displayName="Tabela2" ref="A2:J51" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A2:J51" xr:uid="{6A7E6C11-E15E-43D4-8193-0A9DA9700B3C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J43">
     <sortCondition ref="G3:G43"/>
     <sortCondition ref="C3:C43"/>
     <sortCondition ref="F3:F43"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Requisito" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{B9B864BA-C5E5-45E2-817E-3E3871CAC849}" name="Descrição" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{3502BB37-E611-4076-B136-7B67D26992FF}" name="Tamanho " dataDxfId="11">
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{9F7D184E-A2F2-4E3C-AF8D-4C0F7A1EB03C}" name="Requisito" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{B9B864BA-C5E5-45E2-817E-3E3871CAC849}" name="Descrição" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{7736CB43-35DE-44E3-99F9-A059BE9A77F6}" name="Classificação" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{3502BB37-E611-4076-B136-7B67D26992FF}" name="Tamanho " dataDxfId="12">
       <calculatedColumnFormula array="1">_xlfn.IFS(E3=3,"PP",E3=5,"P",E3=8,"M",E3=13,"G",E3=21,"GG")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{04F91C54-26E1-4063-B34C-03486B3A493F}" name="Tamanho (#)" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{203EEE87-31C9-4EC2-8FF5-1485A10738C6}" name="Prioridade" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{BD2690E1-9135-40F1-9CE5-CDC4221DCC2A}" name="Sprint" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Status" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{04F91C54-26E1-4063-B34C-03486B3A493F}" name="Tamanho (#)" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{203EEE87-31C9-4EC2-8FF5-1485A10738C6}" name="Prioridade" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{BD2690E1-9135-40F1-9CE5-CDC4221DCC2A}" name="Sprint" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{D6670E8A-4039-4A31-A647-3D365CB5F2AA}" name="Status" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{28AF7159-0180-4285-9018-923AACB2F75B}" name="Responsável" dataDxfId="7"/>
     <tableColumn id="6" xr3:uid="{FB961424-78DB-4B77-AA3E-E371EBCFF2CC}" name="Matéria" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1059,26 +1119,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="87" style="1" customWidth="1"/>
-    <col min="3" max="7" width="19.81640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1"/>
-    <col min="11" max="11" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.81640625" style="1"/>
+    <col min="1" max="1" width="58.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48" style="1" customWidth="1"/>
+    <col min="3" max="7" width="19.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.77734375" style="1"/>
+    <col min="12" max="12" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>17</v>
       </c>
@@ -1090,8 +1152,9 @@
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>61</v>
       </c>
@@ -1117,10 +1180,13 @@
         <v>55</v>
       </c>
       <c r="I2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1147,10 +1213,13 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1177,10 +1246,13 @@
         <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1207,10 +1279,13 @@
         <v>32</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1237,10 +1312,13 @@
         <v>32</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1266,12 +1344,15 @@
       <c r="H7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1298,10 +1379,13 @@
         <v>32</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>0</v>
       </c>
@@ -1328,11 +1412,14 @@
         <v>32</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="M9"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1359,10 +1446,13 @@
         <v>32</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -1389,10 +1479,13 @@
         <v>32</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1419,10 +1512,13 @@
         <v>32</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1449,10 +1545,13 @@
         <v>32</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1479,10 +1578,13 @@
         <v>32</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
@@ -1509,10 +1611,13 @@
         <v>33</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="31" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1539,10 +1644,13 @@
         <v>33</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1569,10 +1677,13 @@
         <v>33</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -1599,10 +1710,13 @@
         <v>33</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1629,10 +1743,13 @@
         <v>31</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
@@ -1659,10 +1776,13 @@
         <v>32</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="45" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>27</v>
       </c>
@@ -1689,10 +1809,13 @@
         <v>32</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>18</v>
       </c>
@@ -1719,10 +1842,13 @@
         <v>32</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
@@ -1749,10 +1875,13 @@
         <v>31</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1779,10 +1908,13 @@
         <v>32</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>25</v>
       </c>
@@ -1809,10 +1941,13 @@
         <v>31</v>
       </c>
       <c r="I25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -1839,10 +1974,13 @@
         <v>31</v>
       </c>
       <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
@@ -1869,10 +2007,13 @@
         <v>32</v>
       </c>
       <c r="I27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
@@ -1899,10 +2040,13 @@
         <v>31</v>
       </c>
       <c r="I28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
@@ -1929,10 +2073,13 @@
         <v>33</v>
       </c>
       <c r="I29" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
@@ -1959,10 +2106,13 @@
         <v>33</v>
       </c>
       <c r="I30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1989,10 +2139,13 @@
         <v>33</v>
       </c>
       <c r="I31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>21</v>
       </c>
@@ -2019,10 +2172,13 @@
         <v>33</v>
       </c>
       <c r="I32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>2</v>
       </c>
@@ -2049,14 +2205,19 @@
         <v>33</v>
       </c>
       <c r="I33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>1</v>
       </c>
@@ -2077,14 +2238,19 @@
         <v>33</v>
       </c>
       <c r="I34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>1</v>
       </c>
@@ -2105,14 +2271,19 @@
         <v>33</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C36" s="2" t="s">
         <v>1</v>
       </c>
@@ -2133,14 +2304,19 @@
         <v>33</v>
       </c>
       <c r="I36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>1</v>
       </c>
@@ -2161,14 +2337,19 @@
         <v>33</v>
       </c>
       <c r="I37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
@@ -2189,14 +2370,19 @@
         <v>33</v>
       </c>
       <c r="I38" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C39" s="2" t="s">
         <v>1</v>
       </c>
@@ -2217,14 +2403,19 @@
         <v>33</v>
       </c>
       <c r="I39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C40" s="2" t="s">
         <v>1</v>
       </c>
@@ -2245,14 +2436,19 @@
         <v>33</v>
       </c>
       <c r="I40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C41" s="2" t="s">
         <v>1</v>
       </c>
@@ -2273,14 +2469,19 @@
         <v>33</v>
       </c>
       <c r="I41" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J41" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="C42" s="2" t="s">
         <v>1</v>
       </c>
@@ -2301,14 +2502,19 @@
         <v>33</v>
       </c>
       <c r="I42" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="C43" s="2" t="s">
         <v>35</v>
       </c>
@@ -2329,14 +2535,280 @@
         <v>33</v>
       </c>
       <c r="I43" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2" t="str" cm="1">
+        <f t="array" ref="D44">_xlfn.IFS(E44=3,"PP",E44=5,"P",E44=8,"M",E44=13,"G",E44=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E44" s="6">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>3</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="str" cm="1">
+        <f t="array" ref="D45">_xlfn.IFS(E45=3,"PP",E45=5,"P",E45=8,"M",E45=13,"G",E45=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E45" s="6">
+        <v>8</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2</v>
+      </c>
+      <c r="G45" s="6">
+        <v>3</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="str" cm="1">
+        <f t="array" ref="D46">_xlfn.IFS(E46=3,"PP",E46=5,"P",E46=8,"M",E46=13,"G",E46=21,"GG")</f>
+        <v>G</v>
+      </c>
+      <c r="E46" s="6">
+        <v>13</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <v>3</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2" t="str" cm="1">
+        <f t="array" ref="D47">_xlfn.IFS(E47=3,"PP",E47=5,"P",E47=8,"M",E47=13,"G",E47=21,"GG")</f>
+        <v>PP</v>
+      </c>
+      <c r="E47" s="6">
+        <v>3</v>
+      </c>
+      <c r="F47" s="6">
+        <v>3</v>
+      </c>
+      <c r="G47" s="6">
+        <v>3</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2" t="str" cm="1">
+        <f t="array" ref="D48">_xlfn.IFS(E48=3,"PP",E48=5,"P",E48=8,"M",E48=13,"G",E48=21,"GG")</f>
+        <v>P</v>
+      </c>
+      <c r="E48" s="6">
+        <v>5</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6">
+        <v>3</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="6">
+        <v>8</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1</v>
+      </c>
+      <c r="G49" s="6">
+        <v>3</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="str" cm="1">
+        <f t="array" ref="D50">_xlfn.IFS(E49=3,"PP",E49=5,"P",E49=8,"M",E49=13,"G",E49=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E50" s="6">
+        <v>5</v>
+      </c>
+      <c r="F50" s="6">
+        <v>2</v>
+      </c>
+      <c r="G50" s="6">
+        <v>3</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="str" cm="1">
+        <f t="array" ref="D51">_xlfn.IFS(E51=3,"PP",E51=5,"P",E51=8,"M",E51=13,"G",E51=21,"GG")</f>
+        <v>M</v>
+      </c>
+      <c r="E51" s="6">
+        <v>8</v>
+      </c>
+      <c r="F51" s="6">
+        <v>2</v>
+      </c>
+      <c r="G51" s="6">
+        <v>3</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:F43 H3:I43">
+  <conditionalFormatting sqref="C3:F51 H3:J51">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
@@ -2347,7 +2819,7 @@
       <formula>"Importante"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I43">
+  <conditionalFormatting sqref="H3:J51">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Finalizada"</formula>
     </cfRule>
@@ -2358,24 +2830,27 @@
       <formula>"Pendente"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G43" xr:uid="{E9CF9112-A7D5-4A3C-8BE7-64942B77F025}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G51" xr:uid="{E9CF9112-A7D5-4A3C-8BE7-64942B77F025}">
       <formula1>"1,2,3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C43" xr:uid="{8630AD09-0144-4519-A158-ED3BE3A9872A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C51" xr:uid="{8630AD09-0144-4519-A158-ED3BE3A9872A}">
       <formula1>"Essencial,Importante,Desejável"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H43" xr:uid="{C0662D32-9D3B-4AF6-A8DD-256816F071DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H51" xr:uid="{C0662D32-9D3B-4AF6-A8DD-256816F071DB}">
       <formula1>"Pendente,Em Andamento, Finalizada"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I43" xr:uid="{39068AEF-AD2C-49EF-8127-9D7EB96B73B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J51" xr:uid="{39068AEF-AD2C-49EF-8127-9D7EB96B73B3}">
       <formula1>"-,Algoritmo,Arquitetura Computacional,Banco de Dados,Introdução à SO,Pesquisa e Inovação,Tecnlogia da Informação"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E43" xr:uid="{007AAA73-0A84-4DF3-8313-6B93A73F8B5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D51" xr:uid="{14DF18D5-D0D6-460C-9DD3-F79140E2407B}">
+      <formula1>"PP,P,M,G,GG"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E51" xr:uid="{007AAA73-0A84-4DF3-8313-6B93A73F8B5E}">
       <formula1>"3,5,8,13,21"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D43" xr:uid="{14DF18D5-D0D6-460C-9DD3-F79140E2407B}">
-      <formula1>"PP,P,M,G,GG"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I51" xr:uid="{DC5F1E14-E5C2-4B5F-80D3-19B355F02D2D}">
+      <formula1>"João Pedro, Lucas Aiello, Lucas Pereira, Miguel Angel, Shelly Nadudvari, Thiago Sanchez"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
